--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED1139A-14C0-0640-9D3E-071BC53DCEF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E11D9C-C276-DF46-8401-A8B983FD6AD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,6 +520,9 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="N2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:M2)*6))/10</f>
         <v>0</v>
@@ -532,9 +535,12 @@
       <c r="B3">
         <v>2.5</v>
       </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N7" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -544,6 +550,9 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -556,9 +565,12 @@
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>1.25</v>
+      </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -568,9 +580,12 @@
       <c r="B6">
         <v>2.5</v>
       </c>
+      <c r="C6">
+        <v>1.25</v>
+      </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -580,9 +595,12 @@
       <c r="B7">
         <v>2.5</v>
       </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E11D9C-C276-DF46-8401-A8B983FD6AD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD83939-A651-9B48-A59B-6524E902DFB3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,6 +523,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="N2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:M2)*6))/10</f>
         <v>0</v>
@@ -538,9 +541,12 @@
       <c r="C3">
         <v>2.5</v>
       </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N7" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -553,6 +559,9 @@
       <c r="C4">
         <v>0</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -568,9 +577,12 @@
       <c r="C5">
         <v>1.25</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -583,6 +595,9 @@
       <c r="C6">
         <v>1.25</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -598,9 +613,12 @@
       <c r="C7">
         <v>2.5</v>
       </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD83939-A651-9B48-A59B-6524E902DFB3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235EF8C9-92E2-664C-A85A-967611175BA6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,9 +526,12 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>2.5</v>
+      </c>
       <c r="N2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:M2)*6))/10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -544,9 +547,12 @@
       <c r="D3">
         <v>1.5</v>
       </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N7" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -562,6 +568,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -580,6 +589,9 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -598,6 +610,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -615,6 +630,9 @@
       </c>
       <c r="D7">
         <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235EF8C9-92E2-664C-A85A-967611175BA6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35279A-DCF2-D147-B784-8AE7FADA97BC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +529,9 @@
       <c r="E2">
         <v>2.5</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="N2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:M2)*6))/10</f>
         <v>1</v>
@@ -550,9 +553,12 @@
       <c r="E3">
         <v>2.5</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N7" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -571,6 +577,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -592,9 +601,12 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -613,9 +625,12 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -634,9 +649,12 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35279A-DCF2-D147-B784-8AE7FADA97BC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289AF9B9-1A80-4149-AC02-BDCE08225EA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nome</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Eduardo Lago Nunes</t>
-  </si>
-  <si>
-    <t>Edinaldo De Paiva Santos</t>
   </si>
   <si>
     <t>Filipe Palma Abreu</t>
@@ -452,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N7" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
+        <f t="shared" ref="N3:N6" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
         <v>4.2</v>
       </c>
     </row>
@@ -569,20 +566,20 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -590,13 +587,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
         <v>1.25</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -606,7 +603,7 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -617,10 +614,10 @@
         <v>2.5</v>
       </c>
       <c r="C6">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -629,30 +626,6 @@
         <v>1</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>2.5</v>
-      </c>
-      <c r="C7">
-        <v>2.5</v>
-      </c>
-      <c r="D7">
-        <v>2.5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289AF9B9-1A80-4149-AC02-BDCE08225EA8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1F5B4-9216-144F-B349-AE6578314287}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +529,9 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="N2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:M2)*6))/10</f>
         <v>1</v>
@@ -553,9 +556,12 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N6" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -577,9 +583,12 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="N4" s="2">
         <f t="shared" si="0"/>
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -601,6 +610,9 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>2.1</v>
@@ -625,9 +637,12 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="N6" s="2">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1F5B4-9216-144F-B349-AE6578314287}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B3264-2988-6949-8371-6B5580A6CB37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nome</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
   </si>
   <si>
     <t>Total</t>
@@ -449,21 +446,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.1640625" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="5.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,40 +503,40 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <f>((SUM(B2:E2)*4)+(SUM(F2:L2)*6))/10</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2.5</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <f>((SUM(B2:E2)*4)+(SUM(F2:M2)*6))/10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>2.5</v>
@@ -559,14 +556,17 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="N3" s="2">
-        <f t="shared" ref="N3:N6" si="0">((SUM(B3:E3)*4)+(SUM(F3:M3)*6))/10</f>
-        <v>4.8</v>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <f>((SUM(B3:E3)*4)+(SUM(F3:L3)*6))/10</f>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -586,14 +586,17 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <f>((SUM(B4:E4)*4)+(SUM(F4:L4)*6))/10</f>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2.5</v>
@@ -613,14 +616,17 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="N5" s="2">
-        <f t="shared" si="0"/>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f>((SUM(B5:E5)*4)+(SUM(F5:L5)*6))/10</f>
         <v>2.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2.5</v>
@@ -640,9 +646,12 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="N6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2</v>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f>((SUM(B6:E6)*4)+(SUM(F6:L6)*6))/10</f>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B3264-2988-6949-8371-6B5580A6CB37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF406654-1BF9-C143-9A4A-25DDACE33274}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nome</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Lucas Borges Jagersbacher</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,9 +532,15 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="M2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:L2)*6))/10</f>
         <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -559,6 +568,9 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="M3" s="2">
         <f>((SUM(B3:E3)*4)+(SUM(F3:L3)*6))/10</f>
         <v>5.4</v>
@@ -589,9 +601,12 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="M4" s="2">
         <f>((SUM(B4:E4)*4)+(SUM(F4:L4)*6))/10</f>
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -619,6 +634,9 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="M5" s="2">
         <f>((SUM(B5:E5)*4)+(SUM(F5:L5)*6))/10</f>
         <v>2.1</v>
@@ -648,6 +666,9 @@
       </c>
       <c r="H6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>((SUM(B6:E6)*4)+(SUM(F6:L6)*6))/10</f>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF406654-1BF9-C143-9A4A-25DDACE33274}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406B996-C0B4-0C45-8ED6-1B6EB1A6BE25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nome</t>
   </si>
@@ -452,7 +452,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,6 +535,9 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="M2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:L2)*6))/10</f>
         <v>1</v>
@@ -571,9 +574,12 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
       <c r="M3" s="2">
         <f>((SUM(B3:E3)*4)+(SUM(F3:L3)*6))/10</f>
-        <v>5.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -604,9 +610,12 @@
       <c r="I4">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
       <c r="M4" s="2">
         <f>((SUM(B4:E4)*4)+(SUM(F4:L4)*6))/10</f>
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -637,9 +646,15 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="M5" s="2">
         <f>((SUM(B5:E5)*4)+(SUM(F5:L5)*6))/10</f>
         <v>2.1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -670,9 +685,12 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
       <c r="M6" s="2">
         <f>((SUM(B6:E6)*4)+(SUM(F6:L6)*6))/10</f>
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4406B996-C0B4-0C45-8ED6-1B6EB1A6BE25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C8303-3591-084E-918D-595623DE06E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,6 +538,9 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="M2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:L2)*6))/10</f>
         <v>1</v>
@@ -577,9 +580,12 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
       <c r="M3" s="2">
         <f>((SUM(B3:E3)*4)+(SUM(F3:L3)*6))/10</f>
-        <v>6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -613,9 +619,12 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="M4" s="2">
         <f>((SUM(B4:E4)*4)+(SUM(F4:L4)*6))/10</f>
-        <v>4.9000000000000004</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -649,6 +658,9 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="M5" s="2">
         <f>((SUM(B5:E5)*4)+(SUM(F5:L5)*6))/10</f>
         <v>2.1</v>
@@ -688,9 +700,12 @@
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
       <c r="M6" s="2">
         <f>((SUM(B6:E6)*4)+(SUM(F6:L6)*6))/10</f>
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C8303-3591-084E-918D-595623DE06E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B76855-9853-5946-918D-91FAB881A7DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Nome</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,6 +544,9 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2" s="2">
         <f>((SUM(B2:E2)*4)+(SUM(F2:L2)*6))/10</f>
         <v>1</v>
@@ -583,9 +589,15 @@
       <c r="K3">
         <v>2</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3" s="2">
         <f>((SUM(B3:E3)*4)+(SUM(F3:L3)*6))/10</f>
         <v>7.2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -622,9 +634,15 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
       <c r="M4" s="2">
         <f>((SUM(B4:E4)*4)+(SUM(F4:L4)*6))/10</f>
-        <v>5.5</v>
+        <v>6.7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -661,6 +679,9 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5" s="2">
         <f>((SUM(B5:E5)*4)+(SUM(F5:L5)*6))/10</f>
         <v>2.1</v>
@@ -703,9 +724,15 @@
       <c r="K6">
         <v>2</v>
       </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
       <c r="M6" s="2">
         <f>((SUM(B6:E6)*4)+(SUM(F6:L6)*6))/10</f>
-        <v>6.6</v>
+        <v>7.8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/_pedro/notas/musb18.xlsx
+++ b/_pedro/notas/musb18.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kroger/Code/genosmus/_pedro/notas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B76855-9853-5946-918D-91FAB881A7DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6FBBE2-A678-EA4B-A18A-7DCECA7C34ED}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4FA70E4-ABCE-C848-901A-AE79EA4642FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52662730-B2EC-5246-9883-F7D2B6CC212C}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
